--- a/plantillas/Masas_mixtas_Espana/Mixtos-plantilla_inventario.xlsx
+++ b/plantillas/Masas_mixtas_Espana/Mixtos-plantilla_inventario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Parcelas" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,16 +39,16 @@
     <t xml:space="preserve">ID_SP2</t>
   </si>
   <si>
-    <t xml:space="preserve">MARTONNE_1</t>
+    <t xml:space="preserve">MARTONNE_2020</t>
   </si>
   <si>
-    <t xml:space="preserve">MARTONNE_2</t>
+    <t xml:space="preserve">MARTONNE_2040</t>
   </si>
   <si>
-    <t xml:space="preserve">MARTONNE_3</t>
+    <t xml:space="preserve">MARTONNE_2060</t>
   </si>
   <si>
-    <t xml:space="preserve">MARTONNE_4</t>
+    <t xml:space="preserve">MARTONNE_2080</t>
   </si>
   <si>
     <t xml:space="preserve">Anho</t>
@@ -84,16 +84,16 @@
     <t xml:space="preserve">Código identificador de la especie 2 en masas mixtas, según el criterio del IFN (Inventario Forestal Nacional (España)). La especie 2 debe correspondense con la segunda especie enunciada en el nombre del modelo</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de Martonne, calculado para el momento 1. Se aplicará sobre los cálculos del modelo desde el inicio de la simulación hasta el año 2020</t>
+    <t xml:space="preserve">Índice de Martonne, calculado para el momento 1 (2020-2040). Se aplicará sobre los cálculos del modelo desde el inicio de la simulación hasta el año 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de Martonne, calculado para el momento 2. Se aplicará sobre los cálculos del modelo desde el año 2020 hasta el año 2040</t>
+    <t xml:space="preserve">Índice de Martonne, calculado para el momento 2 (2040-2060). Se aplicará sobre los cálculos del modelo desde el año 2020 hasta el año 2040</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de Martonne, calculado para el momento 3. Se aplicará sobre los cálculos del modelo desde el año 2040 hasta el año 2060</t>
+    <t xml:space="preserve">Índice de Martonne, calculado para el momento 3 (2060-2080). Se aplicará sobre los cálculos del modelo desde el año 2040 hasta el año 2060</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de Martonne, calculado para el momento 4. Se aplicará sobre los cálculos del modelo desde el año 2060 en adelante</t>
+    <t xml:space="preserve">Índice de Martonne, calculado para el momento 4 (2080 en adelante). Se aplicará sobre los cálculos del modelo desde el año 2060 en adelante</t>
   </si>
 </sst>
 </file>
@@ -228,11 +228,11 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
@@ -434,7 +434,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.85"/>
@@ -3123,13 +3123,13 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3185,8 +3185,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>